--- a/tables.xlsx
+++ b/tables.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/389c5c223f9d271c/@Personal/@LiberCraft/book_impress_text-image-basic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/389c5c223f9d271c/@Personal/@work/@LiberCraft/book_impress_text-image-basic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="11_AD4D066CA252ABDACC104814B114D82672EEDF50" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC01CF2B-271A-4C18-BD21-713FDF6BD728}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="11_AD4D066CA252ABDACC104814B114D82672EEDF50" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECD3AFAD-266C-4B12-A87C-E87AE04B50E5}"/>
   <bookViews>
-    <workbookView xWindow="38295" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8025" yWindow="4995" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
   <si>
     <t>文章</t>
   </si>
@@ -243,6 +244,26 @@
   </si>
   <si>
     <t xml:space="preserve">     （https://arxiv.org/abs/2301.02111）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音声*7</t>
+  </si>
+  <si>
+    <t>Stable Audio</t>
+  </si>
+  <si>
+    <t>Stability AI, Ltd.</t>
+  </si>
+  <si>
+    <t>点群</t>
+    <rPh sb="0" eb="2">
+      <t>テングン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Point-E</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -314,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -457,15 +478,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -491,6 +550,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -775,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -791,128 +859,128 @@
   <sheetData>
     <row r="1" spans="2:5" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:5" ht="19.5">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="19.5">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="19.5">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="19.5">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="19.5">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="19.5">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="19.5">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="19.5">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="20.25" thickBot="1">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -942,7 +1010,7 @@
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -952,7 +1020,7 @@
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -983,6 +1051,241 @@
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6614AC-A090-4172-8E91-7E34BBDF5310}">
+  <dimension ref="B1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.5" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:5" ht="19.5">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="19.5">
+      <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="19.5">
+      <c r="B4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="19.5">
+      <c r="B5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="19.5">
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="19.5">
+      <c r="B7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="19.5">
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="19.5">
+      <c r="B9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="19.5">
+      <c r="B10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="20.25" thickBot="1">
+      <c r="B11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="2" t="s">
         <v>43</v>
       </c>
     </row>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -10,16 +10,27 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="170" documentId="11_AD4D066CA252ABDACC104814B114D82672EEDF50" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECD3AFAD-266C-4B12-A87C-E87AE04B50E5}"/>
   <bookViews>
-    <workbookView xWindow="8025" yWindow="4995" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39615" yWindow="1800" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -843,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1064,7 +1075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6614AC-A090-4172-8E91-7E34BBDF5310}">
   <dimension ref="B1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/389c5c223f9d271c/@Personal/@work/@LiberCraft/book_impress_text-image-basic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="11_AD4D066CA252ABDACC104814B114D82672EEDF50" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECD3AFAD-266C-4B12-A87C-E87AE04B50E5}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="11_AD4D066CA252ABDACC104814B114D82672EEDF50" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF8A449D-4B0D-46A3-91E4-7D758CF378C6}"/>
   <bookViews>
-    <workbookView xWindow="39615" yWindow="1800" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="3600" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
   <si>
     <t>文章</t>
   </si>
@@ -275,6 +275,10 @@
   </si>
   <si>
     <t>Point-E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     （https://doi.org/10.48550/arXiv.2301.02111）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -854,7 +858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -1075,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6614AC-A090-4172-8E91-7E34BBDF5310}">
   <dimension ref="B1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1297,7 +1301,7 @@
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
